--- a/static/Transacciones áreas.xlsx
+++ b/static/Transacciones áreas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dcastano\Downloads\Nueva carpeta\static\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dcastano\Downloads\static 3\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E159C28-31AF-48F6-8A9B-CEA47A5B72FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62410B66-0BA4-4598-8E12-568724E6F573}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="3" activeTab="6" xr2:uid="{887E1EDD-E9A1-4368-B0CA-D93A4714EF1C}"/>
+    <workbookView xWindow="-4635" yWindow="-16320" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="3" xr2:uid="{887E1EDD-E9A1-4368-B0CA-D93A4714EF1C}"/>
   </bookViews>
   <sheets>
     <sheet name="PAGOS" sheetId="2" r:id="rId1"/>
@@ -20,16 +20,21 @@
     <sheet name="OPERACION INMOBILIARIA" sheetId="9" r:id="rId5"/>
     <sheet name="COMERCIO INTERNACIONAL" sheetId="10" r:id="rId6"/>
     <sheet name="CAJEROS" sheetId="12" r:id="rId7"/>
-    <sheet name="CONCILIACION SUFI" sheetId="11" r:id="rId8"/>
-    <sheet name="VALIDAR" sheetId="1" r:id="rId9"/>
-    <sheet name="CANJE" sheetId="7" r:id="rId10"/>
+    <sheet name="SUCURSAL" sheetId="13" r:id="rId8"/>
+    <sheet name="CORRESPONSAL" sheetId="14" r:id="rId9"/>
+    <sheet name="EFECTIVO" sheetId="15" r:id="rId10"/>
+    <sheet name="OPERACION DIGITAL" sheetId="16" r:id="rId11"/>
+    <sheet name="CONTACT CENTER Y BPO" sheetId="17" r:id="rId12"/>
+    <sheet name="CONCILIACION SUFI" sheetId="11" r:id="rId13"/>
+    <sheet name="VALIDAR" sheetId="1" r:id="rId14"/>
+    <sheet name="CANJE" sheetId="7" r:id="rId15"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">FINANCIACION!$A$1:$E$128</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'MEDIOS DE PAGO'!$A$1:$E$179</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PAGOS!$A$1:$D$109</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">RECAUDOS!$A$1:$E$720</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">VALIDAR!$A$1:$C$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">VALIDAR!$A$1:$C$15</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2404" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2465" uniqueCount="29">
   <si>
     <t>Código aplicación</t>
   </si>
@@ -124,6 +129,21 @@
   </si>
   <si>
     <t>CAJEROS</t>
+  </si>
+  <si>
+    <t>SUCURSALES</t>
+  </si>
+  <si>
+    <t>CORRESPONSAL</t>
+  </si>
+  <si>
+    <t>EFECTIVO</t>
+  </si>
+  <si>
+    <t>OPERACION DIGITAL</t>
+  </si>
+  <si>
+    <t>CONTACT CENTER Y BPO</t>
   </si>
 </sst>
 </file>
@@ -576,7 +596,7 @@
   <dimension ref="A1:D111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2145,6 +2165,643 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99C72E1C-F35D-4C99-93AB-710A13D9C3DF}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:5" ht="40.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="14">
+        <v>5092</v>
+      </c>
+      <c r="C2" s="14">
+        <v>210515030</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="14"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3757FD4A-D298-4341-A66D-39868A5BE858}">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:5" ht="40.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="14">
+        <v>3046</v>
+      </c>
+      <c r="C2" s="14">
+        <v>168795024</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="14">
+        <v>3483</v>
+      </c>
+      <c r="C3" s="14">
+        <v>168795024</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="14">
+        <v>3489</v>
+      </c>
+      <c r="C4" s="14">
+        <v>168795024</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="14">
+        <v>3818</v>
+      </c>
+      <c r="C5" s="14">
+        <v>168795024</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="14">
+        <v>7447</v>
+      </c>
+      <c r="C6" s="14">
+        <v>168795024</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="14">
+        <v>9160</v>
+      </c>
+      <c r="C7" s="14">
+        <v>168795024</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="14">
+        <v>9908</v>
+      </c>
+      <c r="C8" s="14">
+        <v>168795024</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="14">
+        <v>9957</v>
+      </c>
+      <c r="C9" s="14">
+        <v>168795024</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="14">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36CC9467-4C59-40AE-8ADD-4B05723D4384}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:5" ht="40.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="14">
+        <v>1538</v>
+      </c>
+      <c r="C2" s="14">
+        <v>168795024</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="14">
+        <v>7486</v>
+      </c>
+      <c r="C3" s="14">
+        <v>168795024</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="14">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BFD4510-DC7C-466B-B090-D3D8752F122D}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="4" width="11.453125" style="7"/>
+    <col min="5" max="5" width="37.1796875" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="11.453125" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="40.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3">
+        <v>2999</v>
+      </c>
+      <c r="C2" s="11">
+        <v>279505622</v>
+      </c>
+      <c r="D2" s="2">
+        <v>903</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3">
+        <v>9694</v>
+      </c>
+      <c r="C3" s="11">
+        <v>279505622</v>
+      </c>
+      <c r="D3" s="2">
+        <v>903</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB074F31-28FE-4832-BBB4-A60D0B8ABE6B}">
+  <dimension ref="A1:C24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.54296875" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.81640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.453125" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="11.453125" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="27" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="9">
+        <v>2741</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3">
+        <v>9193</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>9194</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1345</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="3">
+        <v>4629</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="3">
+        <v>5055</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="3">
+        <v>6071</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="3">
+        <v>9014</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="3">
+        <v>9015</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3">
+        <v>932</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3">
+        <v>3853</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="3">
+        <v>4269</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="3">
+        <v>4270</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="3">
+        <v>4770</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="3">
+        <v>8875</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="3">
+        <v>8877</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="3">
+        <v>6548</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="3">
+        <v>6565</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="3">
+        <v>8155</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="3">
+        <v>9046</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" s="3">
+        <v>9048</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" s="3">
+        <v>9244</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" s="3">
+        <v>9245</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{807ABDFF-20AC-40D8-83A7-384C191075FE}">
   <dimension ref="A1:C14"/>
   <sheetViews>
@@ -15857,7 +16514,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D388AD81-3F1D-4776-96B0-2178258405FA}">
   <dimension ref="A1:E128"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -18031,8 +18688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACADE9AD-1808-41B0-9B46-73AD56B931D1}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -18135,69 +18792,105 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BFD4510-DC7C-466B-B090-D3D8752F122D}">
-  <dimension ref="A1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F6669A5-E24F-450B-9A03-7A8411F82A09}">
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="4" width="11.453125" style="7"/>
-    <col min="5" max="5" width="37.1796875" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="11.453125" style="7"/>
+    <col min="1" max="1" width="14.54296875" customWidth="1"/>
+    <col min="2" max="2" width="15.26953125" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="19.453125" customWidth="1"/>
+    <col min="5" max="5" width="20.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="40.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="27" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="3">
-        <v>2999</v>
-      </c>
-      <c r="C2" s="11">
-        <v>279505622</v>
-      </c>
-      <c r="D2" s="2">
-        <v>903</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>22</v>
+      <c r="A2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="14">
+        <v>506</v>
+      </c>
+      <c r="C2" s="14">
+        <v>168795024</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="14">
+        <v>953</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="3">
-        <v>9694</v>
-      </c>
-      <c r="C3" s="11">
-        <v>279505622</v>
-      </c>
-      <c r="D3" s="2">
-        <v>903</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>21</v>
+      <c r="A3" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="14">
+        <v>5056</v>
+      </c>
+      <c r="C3" s="14">
+        <v>168795024</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="14">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="14">
+        <v>7601</v>
+      </c>
+      <c r="C4" s="14">
+        <v>168795024</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="14">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="14">
+        <v>9053</v>
+      </c>
+      <c r="C5" s="14">
+        <v>168795024</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="14">
+        <v>953</v>
       </c>
     </row>
   </sheetData>
@@ -18206,305 +18899,119 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB074F31-28FE-4832-BBB4-A60D0B8ABE6B}">
-  <dimension ref="A1:C26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55CC5195-AD96-456D-8706-21BC1A1F7EF9}">
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection sqref="A1:E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.54296875" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.81640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.453125" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="11.453125" style="7"/>
+    <col min="3" max="4" width="16.08984375" customWidth="1"/>
+    <col min="5" max="5" width="15.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="27" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="27" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="9">
-        <v>2741</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="9">
-        <v>3818</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="9">
-        <v>7447</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="3">
-        <v>9193</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="3">
-        <v>9194</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="3">
-        <v>1345</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="3">
-        <v>4629</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="3">
-        <v>5055</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="3">
-        <v>6071</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="3">
-        <v>9014</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="3">
-        <v>9015</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" s="3">
-        <v>932</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="3">
-        <v>3853</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" s="3">
-        <v>4269</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="3">
-        <v>4270</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17" s="3">
-        <v>4770</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B18" s="3">
-        <v>8875</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="3">
-        <v>8877</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B20" s="3">
-        <v>6548</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B21" s="3">
-        <v>6565</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B22" s="3">
-        <v>8155</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B23" s="3">
-        <v>9046</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B24" s="3">
-        <v>9048</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B25" s="3">
-        <v>9244</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A26" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B26" s="3">
-        <v>9245</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>20</v>
+      <c r="C1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="14">
+        <v>16</v>
+      </c>
+      <c r="C2" s="14">
+        <v>168795024</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="14">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="14">
+        <v>562</v>
+      </c>
+      <c r="C3" s="14">
+        <v>168795024</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="14">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="14">
+        <v>3522</v>
+      </c>
+      <c r="C4" s="14">
+        <v>168795024</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="14">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="14">
+        <v>3525</v>
+      </c>
+      <c r="C5" s="14">
+        <v>168795024</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="14">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="14">
+        <v>8227</v>
+      </c>
+      <c r="C6" s="14">
+        <v>168795024</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="14">
+        <v>917</v>
       </c>
     </row>
   </sheetData>
